--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Corazón de apio.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Corazón de apio.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44267</v>
+        <v>44377</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -497,20 +497,20 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>120</v>
+        <v>550</v>
       </c>
       <c r="K2" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="L2" t="n">
-        <v>1800</v>
+        <v>2800</v>
       </c>
       <c r="M2" t="n">
-        <v>1650</v>
+        <v>2364</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>275</v>
+        <v>394</v>
       </c>
       <c r="Q2" t="n">
         <v>6</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44377</v>
+        <v>44370</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>550</v>
+        <v>100</v>
       </c>
       <c r="K3" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="L3" t="n">
-        <v>2800</v>
+        <v>1200</v>
       </c>
       <c r="M3" t="n">
-        <v>2364</v>
+        <v>1080</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>394</v>
+        <v>180</v>
       </c>
       <c r="Q3" t="n">
         <v>6</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44370</v>
+        <v>44267</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -641,20 +641,20 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K4" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="L4" t="n">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="M4" t="n">
-        <v>1080</v>
+        <v>1650</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>180</v>
+        <v>275</v>
       </c>
       <c r="Q4" t="n">
         <v>6</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Corazón de apio.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Corazón de apio.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44377</v>
+        <v>44267</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -497,20 +497,20 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>550</v>
+        <v>120</v>
       </c>
       <c r="K2" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="L2" t="n">
-        <v>2800</v>
+        <v>1800</v>
       </c>
       <c r="M2" t="n">
-        <v>2364</v>
+        <v>1650</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>394</v>
+        <v>275</v>
       </c>
       <c r="Q2" t="n">
         <v>6</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44267</v>
+        <v>44377</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -641,20 +641,20 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>120</v>
+        <v>550</v>
       </c>
       <c r="K4" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="L4" t="n">
-        <v>1800</v>
+        <v>2800</v>
       </c>
       <c r="M4" t="n">
-        <v>1650</v>
+        <v>2364</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>275</v>
+        <v>394</v>
       </c>
       <c r="Q4" t="n">
         <v>6</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Corazón de apio.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Corazón de apio.xlsx
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44370</v>
+        <v>44377</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>100</v>
+        <v>550</v>
       </c>
       <c r="K3" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="L3" t="n">
-        <v>1200</v>
+        <v>2800</v>
       </c>
       <c r="M3" t="n">
-        <v>1080</v>
+        <v>2364</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>180</v>
+        <v>394</v>
       </c>
       <c r="Q3" t="n">
         <v>6</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44377</v>
+        <v>44370</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>550</v>
+        <v>100</v>
       </c>
       <c r="K4" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="L4" t="n">
-        <v>2800</v>
+        <v>1200</v>
       </c>
       <c r="M4" t="n">
-        <v>2364</v>
+        <v>1080</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>394</v>
+        <v>180</v>
       </c>
       <c r="Q4" t="n">
         <v>6</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Corazón de apio.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Corazón de apio.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44267</v>
+        <v>44370</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -497,20 +497,20 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K2" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="L2" t="n">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="M2" t="n">
-        <v>1650</v>
+        <v>1080</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>275</v>
+        <v>180</v>
       </c>
       <c r="Q2" t="n">
         <v>6</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44370</v>
+        <v>44267</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -641,20 +641,20 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K4" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="L4" t="n">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="M4" t="n">
-        <v>1080</v>
+        <v>1650</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>180</v>
+        <v>275</v>
       </c>
       <c r="Q4" t="n">
         <v>6</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Corazón de apio.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Corazón de apio.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44370</v>
+        <v>44377</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>100</v>
+        <v>550</v>
       </c>
       <c r="K2" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="L2" t="n">
-        <v>1200</v>
+        <v>2800</v>
       </c>
       <c r="M2" t="n">
-        <v>1080</v>
+        <v>2364</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>180</v>
+        <v>394</v>
       </c>
       <c r="Q2" t="n">
         <v>6</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44377</v>
+        <v>44267</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -569,20 +569,20 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>550</v>
+        <v>120</v>
       </c>
       <c r="K3" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="L3" t="n">
-        <v>2800</v>
+        <v>1800</v>
       </c>
       <c r="M3" t="n">
-        <v>2364</v>
+        <v>1650</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>394</v>
+        <v>275</v>
       </c>
       <c r="Q3" t="n">
         <v>6</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44267</v>
+        <v>44370</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -641,20 +641,20 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K4" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="L4" t="n">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="M4" t="n">
-        <v>1650</v>
+        <v>1080</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>275</v>
+        <v>180</v>
       </c>
       <c r="Q4" t="n">
         <v>6</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Corazón de apio.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Corazón de apio.xlsx
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44267</v>
+        <v>44370</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -569,20 +569,20 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K3" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="L3" t="n">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="M3" t="n">
-        <v>1650</v>
+        <v>1080</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>275</v>
+        <v>180</v>
       </c>
       <c r="Q3" t="n">
         <v>6</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44370</v>
+        <v>44267</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -641,20 +641,20 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K4" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="L4" t="n">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="M4" t="n">
-        <v>1080</v>
+        <v>1650</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>180</v>
+        <v>275</v>
       </c>
       <c r="Q4" t="n">
         <v>6</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Corazón de apio.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Corazón de apio.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44377</v>
+        <v>44267</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -497,20 +497,20 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>550</v>
+        <v>120</v>
       </c>
       <c r="K2" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="L2" t="n">
-        <v>2800</v>
+        <v>1800</v>
       </c>
       <c r="M2" t="n">
-        <v>2364</v>
+        <v>1650</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>394</v>
+        <v>275</v>
       </c>
       <c r="Q2" t="n">
         <v>6</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44370</v>
+        <v>44377</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>100</v>
+        <v>550</v>
       </c>
       <c r="K3" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="L3" t="n">
-        <v>1200</v>
+        <v>2800</v>
       </c>
       <c r="M3" t="n">
-        <v>1080</v>
+        <v>2364</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>180</v>
+        <v>394</v>
       </c>
       <c r="Q3" t="n">
         <v>6</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44267</v>
+        <v>44370</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -641,20 +641,20 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K4" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="L4" t="n">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="M4" t="n">
-        <v>1650</v>
+        <v>1080</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>275</v>
+        <v>180</v>
       </c>
       <c r="Q4" t="n">
         <v>6</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Corazón de apio.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Corazón de apio.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44377</v>
+        <v>44623</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -569,24 +569,24 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="K3" t="n">
+        <v>1800</v>
+      </c>
+      <c r="L3" t="n">
         <v>2000</v>
       </c>
-      <c r="L3" t="n">
-        <v>2800</v>
-      </c>
       <c r="M3" t="n">
-        <v>2364</v>
+        <v>1900</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/docena de matas</t>
+          <t>$/paquete</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -595,10 +595,10 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>394</v>
+        <v>1900</v>
       </c>
       <c r="Q3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44370</v>
+        <v>44377</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>100</v>
+        <v>550</v>
       </c>
       <c r="K4" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="L4" t="n">
-        <v>1200</v>
+        <v>2800</v>
       </c>
       <c r="M4" t="n">
-        <v>1080</v>
+        <v>2364</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,12 +667,84 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>180</v>
+        <v>394</v>
       </c>
       <c r="Q4" t="n">
         <v>6</v>
       </c>
       <c r="R4" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>44370</v>
+      </c>
+      <c r="E5" t="n">
+        <v>15</v>
+      </c>
+      <c r="F5" t="n">
+        <v>100112017</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Corazón de apio</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>100</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1200</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1080</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>$/docena de matas</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P5" t="n">
+        <v>180</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>6</v>
+      </c>
+      <c r="R5" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Corazón de apio.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Corazón de apio.xlsx
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44377</v>
+        <v>44370</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>550</v>
+        <v>100</v>
       </c>
       <c r="K4" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="L4" t="n">
-        <v>2800</v>
+        <v>1200</v>
       </c>
       <c r="M4" t="n">
-        <v>2364</v>
+        <v>1080</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>394</v>
+        <v>180</v>
       </c>
       <c r="Q4" t="n">
         <v>6</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44370</v>
+        <v>44377</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>100</v>
+        <v>550</v>
       </c>
       <c r="K5" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="L5" t="n">
-        <v>1200</v>
+        <v>2800</v>
       </c>
       <c r="M5" t="n">
-        <v>1080</v>
+        <v>2364</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>180</v>
+        <v>394</v>
       </c>
       <c r="Q5" t="n">
         <v>6</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Corazón de apio.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Corazón de apio.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44267</v>
+        <v>44377</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -497,20 +497,20 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>120</v>
+        <v>550</v>
       </c>
       <c r="K2" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="L2" t="n">
-        <v>1800</v>
+        <v>2800</v>
       </c>
       <c r="M2" t="n">
-        <v>1650</v>
+        <v>2364</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>275</v>
+        <v>394</v>
       </c>
       <c r="Q2" t="n">
         <v>6</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44370</v>
+        <v>44267</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -641,20 +641,20 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K4" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="L4" t="n">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="M4" t="n">
-        <v>1080</v>
+        <v>1650</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>180</v>
+        <v>275</v>
       </c>
       <c r="Q4" t="n">
         <v>6</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44377</v>
+        <v>44370</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>550</v>
+        <v>100</v>
       </c>
       <c r="K5" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="L5" t="n">
-        <v>2800</v>
+        <v>1200</v>
       </c>
       <c r="M5" t="n">
-        <v>2364</v>
+        <v>1080</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>394</v>
+        <v>180</v>
       </c>
       <c r="Q5" t="n">
         <v>6</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Corazón de apio.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Corazón de apio.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44377</v>
+        <v>44623</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -497,24 +497,24 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="K2" t="n">
+        <v>1800</v>
+      </c>
+      <c r="L2" t="n">
         <v>2000</v>
       </c>
-      <c r="L2" t="n">
-        <v>2800</v>
-      </c>
       <c r="M2" t="n">
-        <v>2364</v>
+        <v>1900</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/docena de matas</t>
+          <t>$/paquete</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -523,10 +523,10 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>394</v>
+        <v>1900</v>
       </c>
       <c r="Q2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44623</v>
+        <v>44377</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -569,24 +569,24 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="K3" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="L3" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="M3" t="n">
-        <v>1900</v>
+        <v>2364</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/paquete</t>
+          <t>$/docena de matas</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -595,10 +595,10 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1900</v>
+        <v>394</v>
       </c>
       <c r="Q3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Corazón de apio.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Corazón de apio.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44623</v>
+        <v>44370</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -497,24 +497,24 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K2" t="n">
-        <v>1800</v>
+        <v>1000</v>
       </c>
       <c r="L2" t="n">
-        <v>2000</v>
+        <v>1200</v>
       </c>
       <c r="M2" t="n">
-        <v>1900</v>
+        <v>1080</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/paquete</t>
+          <t>$/docena de matas</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -523,10 +523,10 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1900</v>
+        <v>180</v>
       </c>
       <c r="Q2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44370</v>
+        <v>44623</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -713,24 +713,24 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K5" t="n">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="L5" t="n">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="M5" t="n">
-        <v>1080</v>
+        <v>1900</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/docena de matas</t>
+          <t>$/paquete</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>180</v>
+        <v>1900</v>
       </c>
       <c r="Q5" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Corazón de apio.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Corazón de apio.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44370</v>
+        <v>44623</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -497,24 +497,24 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K2" t="n">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="L2" t="n">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="M2" t="n">
-        <v>1080</v>
+        <v>1900</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/docena de matas</t>
+          <t>$/paquete</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -523,10 +523,10 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>180</v>
+        <v>1900</v>
       </c>
       <c r="Q2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44377</v>
+        <v>44370</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>550</v>
+        <v>100</v>
       </c>
       <c r="K3" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="L3" t="n">
-        <v>2800</v>
+        <v>1200</v>
       </c>
       <c r="M3" t="n">
-        <v>2364</v>
+        <v>1080</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>394</v>
+        <v>180</v>
       </c>
       <c r="Q3" t="n">
         <v>6</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44623</v>
+        <v>44377</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -713,24 +713,24 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="K5" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="L5" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="M5" t="n">
-        <v>1900</v>
+        <v>2364</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/paquete</t>
+          <t>$/docena de matas</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1900</v>
+        <v>394</v>
       </c>
       <c r="Q5" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Corazón de apio.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Corazón de apio.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44623</v>
+        <v>44370</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -497,24 +497,24 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K2" t="n">
-        <v>1800</v>
+        <v>1000</v>
       </c>
       <c r="L2" t="n">
-        <v>2000</v>
+        <v>1200</v>
       </c>
       <c r="M2" t="n">
-        <v>1900</v>
+        <v>1080</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/paquete</t>
+          <t>$/docena de matas</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -523,10 +523,10 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1900</v>
+        <v>180</v>
       </c>
       <c r="Q2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44370</v>
+        <v>44267</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -569,20 +569,20 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K3" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="L3" t="n">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="M3" t="n">
-        <v>1080</v>
+        <v>1650</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>180</v>
+        <v>275</v>
       </c>
       <c r="Q3" t="n">
         <v>6</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44267</v>
+        <v>44623</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,20 +645,20 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="K4" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="L4" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="M4" t="n">
-        <v>1650</v>
+        <v>1900</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/docena de matas</t>
+          <t>$/paquete</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>275</v>
+        <v>1900</v>
       </c>
       <c r="Q4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Corazón de apio.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Corazón de apio.xlsx
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44267</v>
+        <v>44377</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -569,20 +569,20 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>120</v>
+        <v>550</v>
       </c>
       <c r="K3" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="L3" t="n">
-        <v>1800</v>
+        <v>2800</v>
       </c>
       <c r="M3" t="n">
-        <v>1650</v>
+        <v>2364</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>275</v>
+        <v>394</v>
       </c>
       <c r="Q3" t="n">
         <v>6</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44377</v>
+        <v>44267</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -713,20 +713,20 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>550</v>
+        <v>120</v>
       </c>
       <c r="K5" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="L5" t="n">
-        <v>2800</v>
+        <v>1800</v>
       </c>
       <c r="M5" t="n">
-        <v>2364</v>
+        <v>1650</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>394</v>
+        <v>275</v>
       </c>
       <c r="Q5" t="n">
         <v>6</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Corazón de apio.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Corazón de apio.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44370</v>
+        <v>44623</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -497,24 +497,24 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K2" t="n">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="L2" t="n">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="M2" t="n">
-        <v>1080</v>
+        <v>1900</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/docena de matas</t>
+          <t>$/paquete</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -523,10 +523,10 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>180</v>
+        <v>1900</v>
       </c>
       <c r="Q2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44377</v>
+        <v>44370</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>550</v>
+        <v>100</v>
       </c>
       <c r="K3" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="L3" t="n">
-        <v>2800</v>
+        <v>1200</v>
       </c>
       <c r="M3" t="n">
-        <v>2364</v>
+        <v>1080</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>394</v>
+        <v>180</v>
       </c>
       <c r="Q3" t="n">
         <v>6</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44623</v>
+        <v>44267</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,20 +645,20 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="K4" t="n">
+        <v>1500</v>
+      </c>
+      <c r="L4" t="n">
         <v>1800</v>
       </c>
-      <c r="L4" t="n">
-        <v>2000</v>
-      </c>
       <c r="M4" t="n">
-        <v>1900</v>
+        <v>1650</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/paquete</t>
+          <t>$/docena de matas</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1900</v>
+        <v>275</v>
       </c>
       <c r="Q4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44267</v>
+        <v>44377</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -713,20 +713,20 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>120</v>
+        <v>550</v>
       </c>
       <c r="K5" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="L5" t="n">
-        <v>1800</v>
+        <v>2800</v>
       </c>
       <c r="M5" t="n">
-        <v>1650</v>
+        <v>2364</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>275</v>
+        <v>394</v>
       </c>
       <c r="Q5" t="n">
         <v>6</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Corazón de apio.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Corazón de apio.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44623</v>
+        <v>44370</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -497,24 +497,24 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K2" t="n">
-        <v>1800</v>
+        <v>1000</v>
       </c>
       <c r="L2" t="n">
-        <v>2000</v>
+        <v>1200</v>
       </c>
       <c r="M2" t="n">
-        <v>1900</v>
+        <v>1080</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/paquete</t>
+          <t>$/docena de matas</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -523,10 +523,10 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1900</v>
+        <v>180</v>
       </c>
       <c r="Q2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44370</v>
+        <v>44377</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>100</v>
+        <v>550</v>
       </c>
       <c r="K3" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="L3" t="n">
-        <v>1200</v>
+        <v>2800</v>
       </c>
       <c r="M3" t="n">
-        <v>1080</v>
+        <v>2364</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>180</v>
+        <v>394</v>
       </c>
       <c r="Q3" t="n">
         <v>6</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44377</v>
+        <v>44623</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -713,24 +713,24 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="K5" t="n">
+        <v>1800</v>
+      </c>
+      <c r="L5" t="n">
         <v>2000</v>
       </c>
-      <c r="L5" t="n">
-        <v>2800</v>
-      </c>
       <c r="M5" t="n">
-        <v>2364</v>
+        <v>1900</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/docena de matas</t>
+          <t>$/paquete</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>394</v>
+        <v>1900</v>
       </c>
       <c r="Q5" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Corazón de apio.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Corazón de apio.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44370</v>
+        <v>44623</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -497,24 +497,24 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K2" t="n">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="L2" t="n">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="M2" t="n">
-        <v>1080</v>
+        <v>1900</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/docena de matas</t>
+          <t>$/paquete</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -523,10 +523,10 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>180</v>
+        <v>1900</v>
       </c>
       <c r="Q2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44377</v>
+        <v>44267</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -569,20 +569,20 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>550</v>
+        <v>120</v>
       </c>
       <c r="K3" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="L3" t="n">
-        <v>2800</v>
+        <v>1800</v>
       </c>
       <c r="M3" t="n">
-        <v>2364</v>
+        <v>1650</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>394</v>
+        <v>275</v>
       </c>
       <c r="Q3" t="n">
         <v>6</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44267</v>
+        <v>44370</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -641,20 +641,20 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K4" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="L4" t="n">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="M4" t="n">
-        <v>1650</v>
+        <v>1080</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>275</v>
+        <v>180</v>
       </c>
       <c r="Q4" t="n">
         <v>6</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44623</v>
+        <v>44377</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -713,24 +713,24 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="K5" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="L5" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="M5" t="n">
-        <v>1900</v>
+        <v>2364</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/paquete</t>
+          <t>$/docena de matas</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1900</v>
+        <v>394</v>
       </c>
       <c r="Q5" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Corazón de apio.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Corazón de apio.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44623</v>
+        <v>44370</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -497,24 +497,24 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K2" t="n">
-        <v>1800</v>
+        <v>1000</v>
       </c>
       <c r="L2" t="n">
-        <v>2000</v>
+        <v>1200</v>
       </c>
       <c r="M2" t="n">
-        <v>1900</v>
+        <v>1080</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/paquete</t>
+          <t>$/docena de matas</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -523,10 +523,10 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1900</v>
+        <v>180</v>
       </c>
       <c r="Q2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44267</v>
+        <v>44623</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,20 +573,20 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="K3" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="L3" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="M3" t="n">
-        <v>1650</v>
+        <v>1900</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/docena de matas</t>
+          <t>$/paquete</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -595,10 +595,10 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>275</v>
+        <v>1900</v>
       </c>
       <c r="Q3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44370</v>
+        <v>44377</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>100</v>
+        <v>550</v>
       </c>
       <c r="K4" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="L4" t="n">
-        <v>1200</v>
+        <v>2800</v>
       </c>
       <c r="M4" t="n">
-        <v>1080</v>
+        <v>2364</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>180</v>
+        <v>394</v>
       </c>
       <c r="Q4" t="n">
         <v>6</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44377</v>
+        <v>44267</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -713,20 +713,20 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>550</v>
+        <v>120</v>
       </c>
       <c r="K5" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="L5" t="n">
-        <v>2800</v>
+        <v>1800</v>
       </c>
       <c r="M5" t="n">
-        <v>2364</v>
+        <v>1650</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>394</v>
+        <v>275</v>
       </c>
       <c r="Q5" t="n">
         <v>6</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Corazón de apio.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Corazón de apio.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44370</v>
+        <v>44267</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -497,20 +497,20 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K2" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="L2" t="n">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="M2" t="n">
-        <v>1080</v>
+        <v>1650</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>180</v>
+        <v>275</v>
       </c>
       <c r="Q2" t="n">
         <v>6</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44267</v>
+        <v>44370</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -713,20 +713,20 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K5" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="L5" t="n">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="M5" t="n">
-        <v>1650</v>
+        <v>1080</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>275</v>
+        <v>180</v>
       </c>
       <c r="Q5" t="n">
         <v>6</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Corazón de apio.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Corazón de apio.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44267</v>
+        <v>44623</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,20 +501,20 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="K2" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="L2" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="M2" t="n">
-        <v>1650</v>
+        <v>1900</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/docena de matas</t>
+          <t>$/paquete</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -523,10 +523,10 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>275</v>
+        <v>1900</v>
       </c>
       <c r="Q2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44623</v>
+        <v>44267</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,20 +573,20 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="K3" t="n">
+        <v>1500</v>
+      </c>
+      <c r="L3" t="n">
         <v>1800</v>
       </c>
-      <c r="L3" t="n">
-        <v>2000</v>
-      </c>
       <c r="M3" t="n">
-        <v>1900</v>
+        <v>1650</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/paquete</t>
+          <t>$/docena de matas</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -595,10 +595,10 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1900</v>
+        <v>275</v>
       </c>
       <c r="Q3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44377</v>
+        <v>44370</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>550</v>
+        <v>100</v>
       </c>
       <c r="K4" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="L4" t="n">
-        <v>2800</v>
+        <v>1200</v>
       </c>
       <c r="M4" t="n">
-        <v>2364</v>
+        <v>1080</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>394</v>
+        <v>180</v>
       </c>
       <c r="Q4" t="n">
         <v>6</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44370</v>
+        <v>44377</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>100</v>
+        <v>550</v>
       </c>
       <c r="K5" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="L5" t="n">
-        <v>1200</v>
+        <v>2800</v>
       </c>
       <c r="M5" t="n">
-        <v>1080</v>
+        <v>2364</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>180</v>
+        <v>394</v>
       </c>
       <c r="Q5" t="n">
         <v>6</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Corazón de apio.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Corazón de apio.xlsx
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44267</v>
+        <v>44377</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -569,20 +569,20 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>120</v>
+        <v>550</v>
       </c>
       <c r="K3" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="L3" t="n">
-        <v>1800</v>
+        <v>2800</v>
       </c>
       <c r="M3" t="n">
-        <v>1650</v>
+        <v>2364</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>275</v>
+        <v>394</v>
       </c>
       <c r="Q3" t="n">
         <v>6</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44370</v>
+        <v>44267</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -641,20 +641,20 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K4" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="L4" t="n">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="M4" t="n">
-        <v>1080</v>
+        <v>1650</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>180</v>
+        <v>275</v>
       </c>
       <c r="Q4" t="n">
         <v>6</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44377</v>
+        <v>44370</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>550</v>
+        <v>100</v>
       </c>
       <c r="K5" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="L5" t="n">
-        <v>2800</v>
+        <v>1200</v>
       </c>
       <c r="M5" t="n">
-        <v>2364</v>
+        <v>1080</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>394</v>
+        <v>180</v>
       </c>
       <c r="Q5" t="n">
         <v>6</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Corazón de apio.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Corazón de apio.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44623</v>
+        <v>44370</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -497,24 +497,24 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K2" t="n">
-        <v>1800</v>
+        <v>1000</v>
       </c>
       <c r="L2" t="n">
-        <v>2000</v>
+        <v>1200</v>
       </c>
       <c r="M2" t="n">
-        <v>1900</v>
+        <v>1080</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/paquete</t>
+          <t>$/docena de matas</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -523,10 +523,10 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1900</v>
+        <v>180</v>
       </c>
       <c r="Q2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44377</v>
+        <v>44267</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -569,20 +569,20 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>550</v>
+        <v>120</v>
       </c>
       <c r="K3" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="L3" t="n">
-        <v>2800</v>
+        <v>1800</v>
       </c>
       <c r="M3" t="n">
-        <v>2364</v>
+        <v>1650</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>394</v>
+        <v>275</v>
       </c>
       <c r="Q3" t="n">
         <v>6</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44267</v>
+        <v>44623</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,20 +645,20 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="K4" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="L4" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="M4" t="n">
-        <v>1650</v>
+        <v>1900</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/docena de matas</t>
+          <t>$/paquete</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>275</v>
+        <v>1900</v>
       </c>
       <c r="Q4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44370</v>
+        <v>44377</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>100</v>
+        <v>550</v>
       </c>
       <c r="K5" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="L5" t="n">
-        <v>1200</v>
+        <v>2800</v>
       </c>
       <c r="M5" t="n">
-        <v>1080</v>
+        <v>2364</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>180</v>
+        <v>394</v>
       </c>
       <c r="Q5" t="n">
         <v>6</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Corazón de apio.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Corazón de apio.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44370</v>
+        <v>44377</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>100</v>
+        <v>550</v>
       </c>
       <c r="K2" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="L2" t="n">
-        <v>1200</v>
+        <v>2800</v>
       </c>
       <c r="M2" t="n">
-        <v>1080</v>
+        <v>2364</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>180</v>
+        <v>394</v>
       </c>
       <c r="Q2" t="n">
         <v>6</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44623</v>
+        <v>44370</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -641,24 +641,24 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K4" t="n">
-        <v>1800</v>
+        <v>1000</v>
       </c>
       <c r="L4" t="n">
-        <v>2000</v>
+        <v>1200</v>
       </c>
       <c r="M4" t="n">
-        <v>1900</v>
+        <v>1080</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/paquete</t>
+          <t>$/docena de matas</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1900</v>
+        <v>180</v>
       </c>
       <c r="Q4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44377</v>
+        <v>44623</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -713,24 +713,24 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="K5" t="n">
+        <v>1800</v>
+      </c>
+      <c r="L5" t="n">
         <v>2000</v>
       </c>
-      <c r="L5" t="n">
-        <v>2800</v>
-      </c>
       <c r="M5" t="n">
-        <v>2364</v>
+        <v>1900</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/docena de matas</t>
+          <t>$/paquete</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>394</v>
+        <v>1900</v>
       </c>
       <c r="Q5" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Corazón de apio.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Corazón de apio.xlsx
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44370</v>
+        <v>44623</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -641,24 +641,24 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K4" t="n">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="L4" t="n">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="M4" t="n">
-        <v>1080</v>
+        <v>1900</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/docena de matas</t>
+          <t>$/paquete</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>180</v>
+        <v>1900</v>
       </c>
       <c r="Q4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44623</v>
+        <v>44370</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -713,24 +713,24 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K5" t="n">
-        <v>1800</v>
+        <v>1000</v>
       </c>
       <c r="L5" t="n">
-        <v>2000</v>
+        <v>1200</v>
       </c>
       <c r="M5" t="n">
-        <v>1900</v>
+        <v>1080</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/paquete</t>
+          <t>$/docena de matas</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1900</v>
+        <v>180</v>
       </c>
       <c r="Q5" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Corazón de apio.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Corazón de apio.xlsx
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44623</v>
+        <v>44370</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -641,24 +641,24 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K4" t="n">
-        <v>1800</v>
+        <v>1000</v>
       </c>
       <c r="L4" t="n">
-        <v>2000</v>
+        <v>1200</v>
       </c>
       <c r="M4" t="n">
-        <v>1900</v>
+        <v>1080</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/paquete</t>
+          <t>$/docena de matas</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1900</v>
+        <v>180</v>
       </c>
       <c r="Q4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44370</v>
+        <v>44623</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -713,24 +713,24 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K5" t="n">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="L5" t="n">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="M5" t="n">
-        <v>1080</v>
+        <v>1900</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/docena de matas</t>
+          <t>$/paquete</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>180</v>
+        <v>1900</v>
       </c>
       <c r="Q5" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Corazón de apio.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Corazón de apio.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44377</v>
+        <v>44623</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -497,24 +497,24 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="K2" t="n">
+        <v>1800</v>
+      </c>
+      <c r="L2" t="n">
         <v>2000</v>
       </c>
-      <c r="L2" t="n">
-        <v>2800</v>
-      </c>
       <c r="M2" t="n">
-        <v>2364</v>
+        <v>1900</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/docena de matas</t>
+          <t>$/paquete</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -523,10 +523,10 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>394</v>
+        <v>1900</v>
       </c>
       <c r="Q2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44623</v>
+        <v>44370</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -641,24 +641,24 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K4" t="n">
-        <v>1800</v>
+        <v>1000</v>
       </c>
       <c r="L4" t="n">
-        <v>2000</v>
+        <v>1200</v>
       </c>
       <c r="M4" t="n">
-        <v>1900</v>
+        <v>1080</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/paquete</t>
+          <t>$/docena de matas</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1900</v>
+        <v>180</v>
       </c>
       <c r="Q4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44370</v>
+        <v>44377</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>100</v>
+        <v>550</v>
       </c>
       <c r="K5" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="L5" t="n">
-        <v>1200</v>
+        <v>2800</v>
       </c>
       <c r="M5" t="n">
-        <v>1080</v>
+        <v>2364</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>180</v>
+        <v>394</v>
       </c>
       <c r="Q5" t="n">
         <v>6</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Corazón de apio.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Corazón de apio.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44623</v>
+        <v>44377</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -497,24 +497,24 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="K2" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="L2" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="M2" t="n">
-        <v>1900</v>
+        <v>2364</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/paquete</t>
+          <t>$/docena de matas</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -523,10 +523,10 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1900</v>
+        <v>394</v>
       </c>
       <c r="Q2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44377</v>
+        <v>44623</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -713,24 +713,24 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="K5" t="n">
+        <v>1800</v>
+      </c>
+      <c r="L5" t="n">
         <v>2000</v>
       </c>
-      <c r="L5" t="n">
-        <v>2800</v>
-      </c>
       <c r="M5" t="n">
-        <v>2364</v>
+        <v>1900</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/docena de matas</t>
+          <t>$/paquete</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>394</v>
+        <v>1900</v>
       </c>
       <c r="Q5" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Corazón de apio.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Corazón de apio.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44377</v>
+        <v>44267</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -497,20 +497,20 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>550</v>
+        <v>120</v>
       </c>
       <c r="K2" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="L2" t="n">
-        <v>2800</v>
+        <v>1800</v>
       </c>
       <c r="M2" t="n">
-        <v>2364</v>
+        <v>1650</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>394</v>
+        <v>275</v>
       </c>
       <c r="Q2" t="n">
         <v>6</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44267</v>
+        <v>44623</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,20 +573,20 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="K3" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="L3" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="M3" t="n">
-        <v>1650</v>
+        <v>1900</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/docena de matas</t>
+          <t>$/paquete</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -595,10 +595,10 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>275</v>
+        <v>1900</v>
       </c>
       <c r="Q3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44370</v>
+        <v>44377</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>100</v>
+        <v>550</v>
       </c>
       <c r="K4" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="L4" t="n">
-        <v>1200</v>
+        <v>2800</v>
       </c>
       <c r="M4" t="n">
-        <v>1080</v>
+        <v>2364</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>180</v>
+        <v>394</v>
       </c>
       <c r="Q4" t="n">
         <v>6</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44623</v>
+        <v>44370</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -713,24 +713,24 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K5" t="n">
-        <v>1800</v>
+        <v>1000</v>
       </c>
       <c r="L5" t="n">
-        <v>2000</v>
+        <v>1200</v>
       </c>
       <c r="M5" t="n">
-        <v>1900</v>
+        <v>1080</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/paquete</t>
+          <t>$/docena de matas</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1900</v>
+        <v>180</v>
       </c>
       <c r="Q5" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Corazón de apio.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Corazón de apio.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44267</v>
+        <v>44377</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -497,20 +497,20 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>120</v>
+        <v>550</v>
       </c>
       <c r="K2" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="L2" t="n">
-        <v>1800</v>
+        <v>2800</v>
       </c>
       <c r="M2" t="n">
-        <v>1650</v>
+        <v>2364</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>275</v>
+        <v>394</v>
       </c>
       <c r="Q2" t="n">
         <v>6</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44623</v>
+        <v>44370</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -569,24 +569,24 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K3" t="n">
-        <v>1800</v>
+        <v>1000</v>
       </c>
       <c r="L3" t="n">
-        <v>2000</v>
+        <v>1200</v>
       </c>
       <c r="M3" t="n">
-        <v>1900</v>
+        <v>1080</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/paquete</t>
+          <t>$/docena de matas</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -595,10 +595,10 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1900</v>
+        <v>180</v>
       </c>
       <c r="Q3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44377</v>
+        <v>44267</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -641,20 +641,20 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>550</v>
+        <v>120</v>
       </c>
       <c r="K4" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="L4" t="n">
-        <v>2800</v>
+        <v>1800</v>
       </c>
       <c r="M4" t="n">
-        <v>2364</v>
+        <v>1650</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>394</v>
+        <v>275</v>
       </c>
       <c r="Q4" t="n">
         <v>6</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44370</v>
+        <v>44623</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -713,24 +713,24 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K5" t="n">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="L5" t="n">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="M5" t="n">
-        <v>1080</v>
+        <v>1900</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/docena de matas</t>
+          <t>$/paquete</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>180</v>
+        <v>1900</v>
       </c>
       <c r="Q5" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Corazón de apio.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Corazón de apio.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44377</v>
+        <v>44623</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -497,24 +497,24 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="K2" t="n">
+        <v>1800</v>
+      </c>
+      <c r="L2" t="n">
         <v>2000</v>
       </c>
-      <c r="L2" t="n">
-        <v>2800</v>
-      </c>
       <c r="M2" t="n">
-        <v>2364</v>
+        <v>1900</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/docena de matas</t>
+          <t>$/paquete</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -523,10 +523,10 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>394</v>
+        <v>1900</v>
       </c>
       <c r="Q2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44370</v>
+        <v>44377</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>100</v>
+        <v>550</v>
       </c>
       <c r="K3" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="L3" t="n">
-        <v>1200</v>
+        <v>2800</v>
       </c>
       <c r="M3" t="n">
-        <v>1080</v>
+        <v>2364</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>180</v>
+        <v>394</v>
       </c>
       <c r="Q3" t="n">
         <v>6</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44623</v>
+        <v>44370</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -713,24 +713,24 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K5" t="n">
-        <v>1800</v>
+        <v>1000</v>
       </c>
       <c r="L5" t="n">
-        <v>2000</v>
+        <v>1200</v>
       </c>
       <c r="M5" t="n">
-        <v>1900</v>
+        <v>1080</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/paquete</t>
+          <t>$/docena de matas</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1900</v>
+        <v>180</v>
       </c>
       <c r="Q5" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Corazón de apio.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Corazón de apio.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44623</v>
+        <v>44377</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -497,24 +497,24 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="K2" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="L2" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="M2" t="n">
-        <v>1900</v>
+        <v>2364</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/paquete</t>
+          <t>$/docena de matas</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -523,10 +523,10 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1900</v>
+        <v>394</v>
       </c>
       <c r="Q2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44377</v>
+        <v>44370</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>550</v>
+        <v>100</v>
       </c>
       <c r="K3" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="L3" t="n">
-        <v>2800</v>
+        <v>1200</v>
       </c>
       <c r="M3" t="n">
-        <v>2364</v>
+        <v>1080</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>394</v>
+        <v>180</v>
       </c>
       <c r="Q3" t="n">
         <v>6</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44370</v>
+        <v>44623</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -713,24 +713,24 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K5" t="n">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="L5" t="n">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="M5" t="n">
-        <v>1080</v>
+        <v>1900</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/docena de matas</t>
+          <t>$/paquete</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>180</v>
+        <v>1900</v>
       </c>
       <c r="Q5" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Corazón de apio.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Corazón de apio.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44377</v>
+        <v>44267</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -497,20 +497,20 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>550</v>
+        <v>120</v>
       </c>
       <c r="K2" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="L2" t="n">
-        <v>2800</v>
+        <v>1800</v>
       </c>
       <c r="M2" t="n">
-        <v>2364</v>
+        <v>1650</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>394</v>
+        <v>275</v>
       </c>
       <c r="Q2" t="n">
         <v>6</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44370</v>
+        <v>44623</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -569,24 +569,24 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K3" t="n">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="L3" t="n">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="M3" t="n">
-        <v>1080</v>
+        <v>1900</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/docena de matas</t>
+          <t>$/paquete</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -595,10 +595,10 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>180</v>
+        <v>1900</v>
       </c>
       <c r="Q3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44267</v>
+        <v>44377</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -641,20 +641,20 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>120</v>
+        <v>550</v>
       </c>
       <c r="K4" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="L4" t="n">
-        <v>1800</v>
+        <v>2800</v>
       </c>
       <c r="M4" t="n">
-        <v>1650</v>
+        <v>2364</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>275</v>
+        <v>394</v>
       </c>
       <c r="Q4" t="n">
         <v>6</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44623</v>
+        <v>44370</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -713,24 +713,24 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K5" t="n">
-        <v>1800</v>
+        <v>1000</v>
       </c>
       <c r="L5" t="n">
-        <v>2000</v>
+        <v>1200</v>
       </c>
       <c r="M5" t="n">
-        <v>1900</v>
+        <v>1080</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/paquete</t>
+          <t>$/docena de matas</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1900</v>
+        <v>180</v>
       </c>
       <c r="Q5" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Corazón de apio.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Corazón de apio.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44267</v>
+        <v>44377</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -497,20 +497,20 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>120</v>
+        <v>550</v>
       </c>
       <c r="K2" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="L2" t="n">
-        <v>1800</v>
+        <v>2800</v>
       </c>
       <c r="M2" t="n">
-        <v>1650</v>
+        <v>2364</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>275</v>
+        <v>394</v>
       </c>
       <c r="Q2" t="n">
         <v>6</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44377</v>
+        <v>44370</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>550</v>
+        <v>100</v>
       </c>
       <c r="K4" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="L4" t="n">
-        <v>2800</v>
+        <v>1200</v>
       </c>
       <c r="M4" t="n">
-        <v>2364</v>
+        <v>1080</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>394</v>
+        <v>180</v>
       </c>
       <c r="Q4" t="n">
         <v>6</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44370</v>
+        <v>44267</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -713,20 +713,20 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K5" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="L5" t="n">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="M5" t="n">
-        <v>1080</v>
+        <v>1650</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>180</v>
+        <v>275</v>
       </c>
       <c r="Q5" t="n">
         <v>6</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Corazón de apio.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Corazón de apio.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44377</v>
+        <v>44623</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -497,24 +497,24 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="K2" t="n">
+        <v>1800</v>
+      </c>
+      <c r="L2" t="n">
         <v>2000</v>
       </c>
-      <c r="L2" t="n">
-        <v>2800</v>
-      </c>
       <c r="M2" t="n">
-        <v>2364</v>
+        <v>1900</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/docena de matas</t>
+          <t>$/paquete</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -523,10 +523,10 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>394</v>
+        <v>1900</v>
       </c>
       <c r="Q2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44623</v>
+        <v>44377</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -569,24 +569,24 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="K3" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="L3" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="M3" t="n">
-        <v>1900</v>
+        <v>2364</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/paquete</t>
+          <t>$/docena de matas</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -595,10 +595,10 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1900</v>
+        <v>394</v>
       </c>
       <c r="Q3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44370</v>
+        <v>44267</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -641,20 +641,20 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K4" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="L4" t="n">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="M4" t="n">
-        <v>1080</v>
+        <v>1650</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>180</v>
+        <v>275</v>
       </c>
       <c r="Q4" t="n">
         <v>6</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44267</v>
+        <v>44370</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -713,20 +713,20 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K5" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="L5" t="n">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="M5" t="n">
-        <v>1650</v>
+        <v>1080</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>275</v>
+        <v>180</v>
       </c>
       <c r="Q5" t="n">
         <v>6</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Corazón de apio.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Corazón de apio.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44623</v>
+        <v>44377</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -497,24 +497,24 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="K2" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="L2" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="M2" t="n">
-        <v>1900</v>
+        <v>2364</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/paquete</t>
+          <t>$/docena de matas</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -523,10 +523,10 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1900</v>
+        <v>394</v>
       </c>
       <c r="Q2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44377</v>
+        <v>44623</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -569,24 +569,24 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="K3" t="n">
+        <v>1800</v>
+      </c>
+      <c r="L3" t="n">
         <v>2000</v>
       </c>
-      <c r="L3" t="n">
-        <v>2800</v>
-      </c>
       <c r="M3" t="n">
-        <v>2364</v>
+        <v>1900</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/docena de matas</t>
+          <t>$/paquete</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -595,10 +595,10 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>394</v>
+        <v>1900</v>
       </c>
       <c r="Q3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44267</v>
+        <v>44370</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -641,20 +641,20 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K4" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="L4" t="n">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="M4" t="n">
-        <v>1650</v>
+        <v>1080</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>275</v>
+        <v>180</v>
       </c>
       <c r="Q4" t="n">
         <v>6</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44370</v>
+        <v>44267</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -713,20 +713,20 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K5" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="L5" t="n">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="M5" t="n">
-        <v>1080</v>
+        <v>1650</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>180</v>
+        <v>275</v>
       </c>
       <c r="Q5" t="n">
         <v>6</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Corazón de apio.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Corazón de apio.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44623</v>
+        <v>44370</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -497,24 +497,24 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K2" t="n">
-        <v>1800</v>
+        <v>1000</v>
       </c>
       <c r="L2" t="n">
-        <v>2000</v>
+        <v>1200</v>
       </c>
       <c r="M2" t="n">
-        <v>1900</v>
+        <v>1080</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/paquete</t>
+          <t>$/docena de matas</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -523,10 +523,10 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1900</v>
+        <v>180</v>
       </c>
       <c r="Q2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44377</v>
+        <v>44623</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -569,24 +569,24 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="K3" t="n">
+        <v>1800</v>
+      </c>
+      <c r="L3" t="n">
         <v>2000</v>
       </c>
-      <c r="L3" t="n">
-        <v>2800</v>
-      </c>
       <c r="M3" t="n">
-        <v>2364</v>
+        <v>1900</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/docena de matas</t>
+          <t>$/paquete</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -595,10 +595,10 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>394</v>
+        <v>1900</v>
       </c>
       <c r="Q3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44267</v>
+        <v>44377</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -641,20 +641,20 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>120</v>
+        <v>550</v>
       </c>
       <c r="K4" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="L4" t="n">
-        <v>1800</v>
+        <v>2800</v>
       </c>
       <c r="M4" t="n">
-        <v>1650</v>
+        <v>2364</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>275</v>
+        <v>394</v>
       </c>
       <c r="Q4" t="n">
         <v>6</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44370</v>
+        <v>44267</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -713,20 +713,20 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K5" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="L5" t="n">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="M5" t="n">
-        <v>1080</v>
+        <v>1650</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>180</v>
+        <v>275</v>
       </c>
       <c r="Q5" t="n">
         <v>6</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Corazón de apio.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Corazón de apio.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44370</v>
+        <v>44377</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>100</v>
+        <v>550</v>
       </c>
       <c r="K2" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="L2" t="n">
-        <v>1200</v>
+        <v>2800</v>
       </c>
       <c r="M2" t="n">
-        <v>1080</v>
+        <v>2364</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>180</v>
+        <v>394</v>
       </c>
       <c r="Q2" t="n">
         <v>6</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44623</v>
+        <v>44370</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -569,24 +569,24 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K3" t="n">
-        <v>1800</v>
+        <v>1000</v>
       </c>
       <c r="L3" t="n">
-        <v>2000</v>
+        <v>1200</v>
       </c>
       <c r="M3" t="n">
-        <v>1900</v>
+        <v>1080</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/paquete</t>
+          <t>$/docena de matas</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -595,10 +595,10 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1900</v>
+        <v>180</v>
       </c>
       <c r="Q3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44377</v>
+        <v>44623</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -641,24 +641,24 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="K4" t="n">
+        <v>1800</v>
+      </c>
+      <c r="L4" t="n">
         <v>2000</v>
       </c>
-      <c r="L4" t="n">
-        <v>2800</v>
-      </c>
       <c r="M4" t="n">
-        <v>2364</v>
+        <v>1900</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/docena de matas</t>
+          <t>$/paquete</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>394</v>
+        <v>1900</v>
       </c>
       <c r="Q4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Corazón de apio.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Corazón de apio.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44377</v>
+        <v>44267</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -497,20 +497,20 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>550</v>
+        <v>120</v>
       </c>
       <c r="K2" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="L2" t="n">
-        <v>2800</v>
+        <v>1800</v>
       </c>
       <c r="M2" t="n">
-        <v>2364</v>
+        <v>1650</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>394</v>
+        <v>275</v>
       </c>
       <c r="Q2" t="n">
         <v>6</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44370</v>
+        <v>44623</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -569,24 +569,24 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K3" t="n">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="L3" t="n">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="M3" t="n">
-        <v>1080</v>
+        <v>1900</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/docena de matas</t>
+          <t>$/paquete</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -595,10 +595,10 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>180</v>
+        <v>1900</v>
       </c>
       <c r="Q3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44623</v>
+        <v>44377</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -641,24 +641,24 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="K4" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="L4" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="M4" t="n">
-        <v>1900</v>
+        <v>2364</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/paquete</t>
+          <t>$/docena de matas</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1900</v>
+        <v>394</v>
       </c>
       <c r="Q4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44267</v>
+        <v>44370</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -713,20 +713,20 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K5" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="L5" t="n">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="M5" t="n">
-        <v>1650</v>
+        <v>1080</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>275</v>
+        <v>180</v>
       </c>
       <c r="Q5" t="n">
         <v>6</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Corazón de apio.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Corazón de apio.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44267</v>
+        <v>44377</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -497,20 +497,20 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>120</v>
+        <v>550</v>
       </c>
       <c r="K2" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="L2" t="n">
-        <v>1800</v>
+        <v>2800</v>
       </c>
       <c r="M2" t="n">
-        <v>1650</v>
+        <v>2364</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>275</v>
+        <v>394</v>
       </c>
       <c r="Q2" t="n">
         <v>6</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44623</v>
+        <v>44267</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,20 +573,20 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="K3" t="n">
+        <v>1500</v>
+      </c>
+      <c r="L3" t="n">
         <v>1800</v>
       </c>
-      <c r="L3" t="n">
-        <v>2000</v>
-      </c>
       <c r="M3" t="n">
-        <v>1900</v>
+        <v>1650</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/paquete</t>
+          <t>$/docena de matas</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -595,10 +595,10 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1900</v>
+        <v>275</v>
       </c>
       <c r="Q3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44377</v>
+        <v>44623</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -641,24 +641,24 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="K4" t="n">
+        <v>1800</v>
+      </c>
+      <c r="L4" t="n">
         <v>2000</v>
       </c>
-      <c r="L4" t="n">
-        <v>2800</v>
-      </c>
       <c r="M4" t="n">
-        <v>2364</v>
+        <v>1900</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/docena de matas</t>
+          <t>$/paquete</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>394</v>
+        <v>1900</v>
       </c>
       <c r="Q4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Corazón de apio.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Corazón de apio.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44377</v>
+        <v>44267</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -497,20 +497,20 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>550</v>
+        <v>120</v>
       </c>
       <c r="K2" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="L2" t="n">
-        <v>2800</v>
+        <v>1800</v>
       </c>
       <c r="M2" t="n">
-        <v>2364</v>
+        <v>1650</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>394</v>
+        <v>275</v>
       </c>
       <c r="Q2" t="n">
         <v>6</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44267</v>
+        <v>44623</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,20 +573,20 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="K3" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="L3" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="M3" t="n">
-        <v>1650</v>
+        <v>1900</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/docena de matas</t>
+          <t>$/paquete</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -595,10 +595,10 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>275</v>
+        <v>1900</v>
       </c>
       <c r="Q3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44623</v>
+        <v>44377</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -641,24 +641,24 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="K4" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="L4" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="M4" t="n">
-        <v>1900</v>
+        <v>2364</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/paquete</t>
+          <t>$/docena de matas</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1900</v>
+        <v>394</v>
       </c>
       <c r="Q4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Corazón de apio.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Corazón de apio.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44377</v>
+        <v>44370</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>550</v>
+        <v>100</v>
       </c>
       <c r="K2" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="L2" t="n">
-        <v>2800</v>
+        <v>1200</v>
       </c>
       <c r="M2" t="n">
-        <v>2364</v>
+        <v>1080</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>394</v>
+        <v>180</v>
       </c>
       <c r="Q2" t="n">
         <v>6</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44267</v>
+        <v>44377</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -569,20 +569,20 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>120</v>
+        <v>550</v>
       </c>
       <c r="K3" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="L3" t="n">
-        <v>1800</v>
+        <v>2800</v>
       </c>
       <c r="M3" t="n">
-        <v>1650</v>
+        <v>2364</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>275</v>
+        <v>394</v>
       </c>
       <c r="Q3" t="n">
         <v>6</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44623</v>
+        <v>44267</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,20 +645,20 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="K4" t="n">
+        <v>1500</v>
+      </c>
+      <c r="L4" t="n">
         <v>1800</v>
       </c>
-      <c r="L4" t="n">
-        <v>2000</v>
-      </c>
       <c r="M4" t="n">
-        <v>1900</v>
+        <v>1650</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/paquete</t>
+          <t>$/docena de matas</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1900</v>
+        <v>275</v>
       </c>
       <c r="Q4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44370</v>
+        <v>44623</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -713,24 +713,24 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K5" t="n">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="L5" t="n">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="M5" t="n">
-        <v>1080</v>
+        <v>1900</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/docena de matas</t>
+          <t>$/paquete</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>180</v>
+        <v>1900</v>
       </c>
       <c r="Q5" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Corazón de apio.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Corazón de apio.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44370</v>
+        <v>44377</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>100</v>
+        <v>550</v>
       </c>
       <c r="K2" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="L2" t="n">
-        <v>1200</v>
+        <v>2800</v>
       </c>
       <c r="M2" t="n">
-        <v>1080</v>
+        <v>2364</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>180</v>
+        <v>394</v>
       </c>
       <c r="Q2" t="n">
         <v>6</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44377</v>
+        <v>44267</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -569,20 +569,20 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>550</v>
+        <v>120</v>
       </c>
       <c r="K3" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="L3" t="n">
-        <v>2800</v>
+        <v>1800</v>
       </c>
       <c r="M3" t="n">
-        <v>2364</v>
+        <v>1650</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>394</v>
+        <v>275</v>
       </c>
       <c r="Q3" t="n">
         <v>6</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44267</v>
+        <v>44623</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,20 +645,20 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="K4" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="L4" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="M4" t="n">
-        <v>1650</v>
+        <v>1900</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/docena de matas</t>
+          <t>$/paquete</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>275</v>
+        <v>1900</v>
       </c>
       <c r="Q4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44623</v>
+        <v>44370</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -713,24 +713,24 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K5" t="n">
-        <v>1800</v>
+        <v>1000</v>
       </c>
       <c r="L5" t="n">
-        <v>2000</v>
+        <v>1200</v>
       </c>
       <c r="M5" t="n">
-        <v>1900</v>
+        <v>1080</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/paquete</t>
+          <t>$/docena de matas</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1900</v>
+        <v>180</v>
       </c>
       <c r="Q5" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Corazón de apio.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Corazón de apio.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44377</v>
+        <v>45204</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -713,20 +713,20 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>550</v>
+        <v>100</v>
       </c>
       <c r="K5" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="L5" t="n">
-        <v>2800</v>
+        <v>1000</v>
       </c>
       <c r="M5" t="n">
-        <v>2364</v>
+        <v>900</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,12 +739,84 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>394</v>
+        <v>150</v>
       </c>
       <c r="Q5" t="n">
         <v>6</v>
       </c>
       <c r="R5" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>44377</v>
+      </c>
+      <c r="E6" t="n">
+        <v>15</v>
+      </c>
+      <c r="F6" t="n">
+        <v>100112017</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Corazón de apio</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>550</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2000</v>
+      </c>
+      <c r="L6" t="n">
+        <v>2800</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2364</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>$/docena de matas</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P6" t="n">
+        <v>394</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>6</v>
+      </c>
+      <c r="R6" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Corazón de apio.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Corazón de apio.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44623</v>
+        <v>44377</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -497,24 +497,24 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="K2" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="L2" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="M2" t="n">
-        <v>1900</v>
+        <v>2364</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/paquete</t>
+          <t>$/docena de matas</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -523,10 +523,10 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1900</v>
+        <v>394</v>
       </c>
       <c r="Q2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44267</v>
+        <v>45204</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K4" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="L4" t="n">
-        <v>1800</v>
+        <v>1000</v>
       </c>
       <c r="M4" t="n">
-        <v>1650</v>
+        <v>900</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>275</v>
+        <v>150</v>
       </c>
       <c r="Q4" t="n">
         <v>6</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45204</v>
+        <v>44267</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K5" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="L5" t="n">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="M5" t="n">
-        <v>900</v>
+        <v>1650</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>150</v>
+        <v>275</v>
       </c>
       <c r="Q5" t="n">
         <v>6</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44377</v>
+        <v>44623</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -785,24 +785,24 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="K6" t="n">
+        <v>1800</v>
+      </c>
+      <c r="L6" t="n">
         <v>2000</v>
       </c>
-      <c r="L6" t="n">
-        <v>2800</v>
-      </c>
       <c r="M6" t="n">
-        <v>2364</v>
+        <v>1900</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/docena de matas</t>
+          <t>$/paquete</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -811,10 +811,10 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>394</v>
+        <v>1900</v>
       </c>
       <c r="Q6" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Corazón de apio.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Corazón de apio.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44623</v>
+        <v>45218</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,34 +789,106 @@
         </is>
       </c>
       <c r="J6" t="n">
+        <v>180</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1400</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1500</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1444</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>$/docena de matas</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P6" t="n">
+        <v>241</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>6</v>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>44623</v>
+      </c>
+      <c r="E7" t="n">
+        <v>15</v>
+      </c>
+      <c r="F7" t="n">
+        <v>100112017</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Corazón de apio</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
         <v>300</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K7" t="n">
         <v>1800</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L7" t="n">
         <v>2000</v>
       </c>
-      <c r="M6" t="n">
+      <c r="M7" t="n">
         <v>1900</v>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>$/paquete</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>Región de Arica y Parinacota</t>
         </is>
       </c>
-      <c r="P6" t="n">
+      <c r="P7" t="n">
         <v>1900</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="Q7" t="n">
         <v>1</v>
       </c>
-      <c r="R6" t="inlineStr">
+      <c r="R7" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Corazón de apio.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Corazón de apio.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44377</v>
+        <v>45204</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -497,20 +497,20 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>550</v>
+        <v>100</v>
       </c>
       <c r="K2" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="L2" t="n">
-        <v>2800</v>
+        <v>1000</v>
       </c>
       <c r="M2" t="n">
-        <v>2364</v>
+        <v>900</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>394</v>
+        <v>150</v>
       </c>
       <c r="Q2" t="n">
         <v>6</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44370</v>
+        <v>44267</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -569,20 +569,20 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K3" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="L3" t="n">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="M3" t="n">
-        <v>1080</v>
+        <v>1650</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>180</v>
+        <v>275</v>
       </c>
       <c r="Q3" t="n">
         <v>6</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45204</v>
+        <v>44623</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,20 +645,20 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K4" t="n">
-        <v>800</v>
+        <v>1800</v>
       </c>
       <c r="L4" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="M4" t="n">
-        <v>900</v>
+        <v>1900</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/docena de matas</t>
+          <t>$/paquete</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>150</v>
+        <v>1900</v>
       </c>
       <c r="Q4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44267</v>
+        <v>44377</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -713,20 +713,20 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>120</v>
+        <v>550</v>
       </c>
       <c r="K5" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="L5" t="n">
-        <v>1800</v>
+        <v>2800</v>
       </c>
       <c r="M5" t="n">
-        <v>1650</v>
+        <v>2364</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>275</v>
+        <v>394</v>
       </c>
       <c r="Q5" t="n">
         <v>6</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45218</v>
+        <v>44370</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -785,33 +785,33 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J6" t="n">
+        <v>100</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1200</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1080</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>$/docena de matas</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P6" t="n">
         <v>180</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1400</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1500</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1444</v>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>$/docena de matas</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>Región de Arica y Parinacota</t>
-        </is>
-      </c>
-      <c r="P6" t="n">
-        <v>241</v>
       </c>
       <c r="Q6" t="n">
         <v>6</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44623</v>
+        <v>45218</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -861,20 +861,20 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="K7" t="n">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="L7" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="M7" t="n">
-        <v>1900</v>
+        <v>1444</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/paquete</t>
+          <t>$/docena de matas</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -883,10 +883,10 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1900</v>
+        <v>241</v>
       </c>
       <c r="Q7" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Corazón de apio.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Corazón de apio.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44623</v>
+        <v>45225</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,20 +645,20 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="K4" t="n">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="L4" t="n">
         <v>2000</v>
       </c>
       <c r="M4" t="n">
-        <v>1900</v>
+        <v>1750</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/paquete</t>
+          <t>$/docena de matas</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1900</v>
+        <v>292</v>
       </c>
       <c r="Q4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44377</v>
+        <v>44623</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -713,24 +713,24 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="K5" t="n">
+        <v>1800</v>
+      </c>
+      <c r="L5" t="n">
         <v>2000</v>
       </c>
-      <c r="L5" t="n">
-        <v>2800</v>
-      </c>
       <c r="M5" t="n">
-        <v>2364</v>
+        <v>1900</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/docena de matas</t>
+          <t>$/paquete</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>394</v>
+        <v>1900</v>
       </c>
       <c r="Q5" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44370</v>
+        <v>44377</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>100</v>
+        <v>550</v>
       </c>
       <c r="K6" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="L6" t="n">
-        <v>1200</v>
+        <v>2800</v>
       </c>
       <c r="M6" t="n">
-        <v>1080</v>
+        <v>2364</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>180</v>
+        <v>394</v>
       </c>
       <c r="Q6" t="n">
         <v>6</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45218</v>
+        <v>44370</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -857,38 +857,110 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J7" t="n">
+        <v>100</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1200</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1080</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>$/docena de matas</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P7" t="n">
         <v>180</v>
-      </c>
-      <c r="K7" t="n">
-        <v>1400</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1500</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1444</v>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>$/docena de matas</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>Región de Arica y Parinacota</t>
-        </is>
-      </c>
-      <c r="P7" t="n">
-        <v>241</v>
       </c>
       <c r="Q7" t="n">
         <v>6</v>
       </c>
       <c r="R7" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>45218</v>
+      </c>
+      <c r="E8" t="n">
+        <v>15</v>
+      </c>
+      <c r="F8" t="n">
+        <v>100112017</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Corazón de apio</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>180</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1400</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1500</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1444</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>$/docena de matas</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P8" t="n">
+        <v>241</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>6</v>
+      </c>
+      <c r="R8" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Corazón de apio.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Corazón de apio.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45204</v>
+        <v>44623</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,20 +501,20 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K2" t="n">
-        <v>800</v>
+        <v>1800</v>
       </c>
       <c r="L2" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="M2" t="n">
-        <v>900</v>
+        <v>1900</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/docena de matas</t>
+          <t>$/paquete</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -523,10 +523,10 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>150</v>
+        <v>1900</v>
       </c>
       <c r="Q2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44267</v>
+        <v>45204</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K3" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="L3" t="n">
-        <v>1800</v>
+        <v>1000</v>
       </c>
       <c r="M3" t="n">
-        <v>1650</v>
+        <v>900</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>275</v>
+        <v>150</v>
       </c>
       <c r="Q3" t="n">
         <v>6</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44623</v>
+        <v>45218</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,20 +717,20 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="K5" t="n">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="L5" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="M5" t="n">
-        <v>1900</v>
+        <v>1444</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/paquete</t>
+          <t>$/docena de matas</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1900</v>
+        <v>241</v>
       </c>
       <c r="Q5" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45218</v>
+        <v>44267</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="K8" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="L8" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="M8" t="n">
-        <v>1444</v>
+        <v>1650</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>241</v>
+        <v>275</v>
       </c>
       <c r="Q8" t="n">
         <v>6</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Corazón de apio.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Corazón de apio.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44623</v>
+        <v>44377</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -497,24 +497,24 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="K2" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="L2" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="M2" t="n">
-        <v>1900</v>
+        <v>2364</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/paquete</t>
+          <t>$/docena de matas</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -523,10 +523,10 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1900</v>
+        <v>394</v>
       </c>
       <c r="Q2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45225</v>
+        <v>45218</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="K4" t="n">
+        <v>1400</v>
+      </c>
+      <c r="L4" t="n">
         <v>1500</v>
       </c>
-      <c r="L4" t="n">
-        <v>2000</v>
-      </c>
       <c r="M4" t="n">
-        <v>1750</v>
+        <v>1444</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>292</v>
+        <v>241</v>
       </c>
       <c r="Q4" t="n">
         <v>6</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45218</v>
+        <v>45225</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="K5" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="L5" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="M5" t="n">
-        <v>1444</v>
+        <v>1750</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>241</v>
+        <v>292</v>
       </c>
       <c r="Q5" t="n">
         <v>6</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44377</v>
+        <v>44267</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -785,20 +785,20 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>550</v>
+        <v>120</v>
       </c>
       <c r="K6" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="L6" t="n">
-        <v>2800</v>
+        <v>1800</v>
       </c>
       <c r="M6" t="n">
-        <v>2364</v>
+        <v>1650</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>394</v>
+        <v>275</v>
       </c>
       <c r="Q6" t="n">
         <v>6</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44370</v>
+        <v>44623</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -857,24 +857,24 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K7" t="n">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="L7" t="n">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="M7" t="n">
-        <v>1080</v>
+        <v>1900</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/docena de matas</t>
+          <t>$/paquete</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -883,10 +883,10 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>180</v>
+        <v>1900</v>
       </c>
       <c r="Q7" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44267</v>
+        <v>44370</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -929,20 +929,20 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K8" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="L8" t="n">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="M8" t="n">
-        <v>1650</v>
+        <v>1080</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>275</v>
+        <v>180</v>
       </c>
       <c r="Q8" t="n">
         <v>6</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Corazón de apio.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Corazón de apio.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44377</v>
+        <v>44623</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -497,24 +497,24 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="K2" t="n">
+        <v>1800</v>
+      </c>
+      <c r="L2" t="n">
         <v>2000</v>
       </c>
-      <c r="L2" t="n">
-        <v>2800</v>
-      </c>
       <c r="M2" t="n">
-        <v>2364</v>
+        <v>1900</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/docena de matas</t>
+          <t>$/paquete</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -523,10 +523,10 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>394</v>
+        <v>1900</v>
       </c>
       <c r="Q2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45218</v>
+        <v>45225</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="K4" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="L4" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="M4" t="n">
-        <v>1444</v>
+        <v>1750</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>241</v>
+        <v>292</v>
       </c>
       <c r="Q4" t="n">
         <v>6</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45225</v>
+        <v>45218</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="K5" t="n">
+        <v>1400</v>
+      </c>
+      <c r="L5" t="n">
         <v>1500</v>
       </c>
-      <c r="L5" t="n">
-        <v>2000</v>
-      </c>
       <c r="M5" t="n">
-        <v>1750</v>
+        <v>1444</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>292</v>
+        <v>241</v>
       </c>
       <c r="Q5" t="n">
         <v>6</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44267</v>
+        <v>44377</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -785,20 +785,20 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>120</v>
+        <v>550</v>
       </c>
       <c r="K6" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="L6" t="n">
-        <v>1800</v>
+        <v>2800</v>
       </c>
       <c r="M6" t="n">
-        <v>1650</v>
+        <v>2364</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>275</v>
+        <v>394</v>
       </c>
       <c r="Q6" t="n">
         <v>6</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44623</v>
+        <v>44370</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -857,24 +857,24 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K7" t="n">
-        <v>1800</v>
+        <v>1000</v>
       </c>
       <c r="L7" t="n">
-        <v>2000</v>
+        <v>1200</v>
       </c>
       <c r="M7" t="n">
-        <v>1900</v>
+        <v>1080</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/paquete</t>
+          <t>$/docena de matas</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -883,10 +883,10 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1900</v>
+        <v>180</v>
       </c>
       <c r="Q7" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44370</v>
+        <v>44267</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -929,20 +929,20 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K8" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="L8" t="n">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="M8" t="n">
-        <v>1080</v>
+        <v>1650</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>180</v>
+        <v>275</v>
       </c>
       <c r="Q8" t="n">
         <v>6</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Corazón de apio.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Corazón de apio.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44377</v>
+        <v>44267</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -497,20 +497,20 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>550</v>
+        <v>120</v>
       </c>
       <c r="K2" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="L2" t="n">
-        <v>2800</v>
+        <v>1800</v>
       </c>
       <c r="M2" t="n">
-        <v>2364</v>
+        <v>1650</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>394</v>
+        <v>275</v>
       </c>
       <c r="Q2" t="n">
         <v>6</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45204</v>
+        <v>45225</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K3" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="L3" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="M3" t="n">
-        <v>900</v>
+        <v>1750</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>150</v>
+        <v>292</v>
       </c>
       <c r="Q3" t="n">
         <v>6</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45225</v>
+        <v>45204</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K5" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="L5" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="M5" t="n">
-        <v>1750</v>
+        <v>900</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>292</v>
+        <v>150</v>
       </c>
       <c r="Q5" t="n">
         <v>6</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44267</v>
+        <v>44370</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -785,20 +785,20 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K6" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="L6" t="n">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="M6" t="n">
-        <v>1650</v>
+        <v>1080</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>275</v>
+        <v>180</v>
       </c>
       <c r="Q6" t="n">
         <v>6</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44623</v>
+        <v>44377</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -857,24 +857,24 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="K7" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="L7" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="M7" t="n">
-        <v>1900</v>
+        <v>2364</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/paquete</t>
+          <t>$/docena de matas</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -883,10 +883,10 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1900</v>
+        <v>394</v>
       </c>
       <c r="Q7" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44370</v>
+        <v>44623</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -929,24 +929,24 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K8" t="n">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="L8" t="n">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="M8" t="n">
-        <v>1080</v>
+        <v>1900</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/docena de matas</t>
+          <t>$/paquete</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -955,10 +955,10 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>180</v>
+        <v>1900</v>
       </c>
       <c r="Q8" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Corazón de apio.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Corazón de apio.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44267</v>
+        <v>45225</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="K2" t="n">
         <v>1500</v>
       </c>
       <c r="L2" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="M2" t="n">
-        <v>1650</v>
+        <v>1750</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="Q2" t="n">
         <v>6</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45225</v>
+        <v>44267</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="K3" t="n">
         <v>1500</v>
       </c>
       <c r="L3" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="M3" t="n">
-        <v>1750</v>
+        <v>1650</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>292</v>
+        <v>275</v>
       </c>
       <c r="Q3" t="n">
         <v>6</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45218</v>
+        <v>44623</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,20 +645,20 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="K4" t="n">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="L4" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="M4" t="n">
-        <v>1444</v>
+        <v>1900</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/docena de matas</t>
+          <t>$/paquete</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>241</v>
+        <v>1900</v>
       </c>
       <c r="Q4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45204</v>
+        <v>44377</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -713,20 +713,20 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>100</v>
+        <v>550</v>
       </c>
       <c r="K5" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="L5" t="n">
-        <v>1000</v>
+        <v>2800</v>
       </c>
       <c r="M5" t="n">
-        <v>900</v>
+        <v>2364</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>150</v>
+        <v>394</v>
       </c>
       <c r="Q5" t="n">
         <v>6</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44377</v>
+        <v>45204</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -857,20 +857,20 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>550</v>
+        <v>100</v>
       </c>
       <c r="K7" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="L7" t="n">
-        <v>2800</v>
+        <v>1000</v>
       </c>
       <c r="M7" t="n">
-        <v>2364</v>
+        <v>900</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>394</v>
+        <v>150</v>
       </c>
       <c r="Q7" t="n">
         <v>6</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44623</v>
+        <v>45218</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -933,20 +933,20 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="K8" t="n">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="L8" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="M8" t="n">
-        <v>1900</v>
+        <v>1444</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/paquete</t>
+          <t>$/docena de matas</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -955,10 +955,10 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1900</v>
+        <v>241</v>
       </c>
       <c r="Q8" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Corazón de apio.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Corazón de apio.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R8"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44267</v>
+        <v>45274</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="K3" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="L3" t="n">
-        <v>1800</v>
+        <v>1000</v>
       </c>
       <c r="M3" t="n">
-        <v>1650</v>
+        <v>900</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>275</v>
+        <v>150</v>
       </c>
       <c r="Q3" t="n">
         <v>6</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44623</v>
+        <v>44267</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,20 +645,20 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="K4" t="n">
+        <v>1500</v>
+      </c>
+      <c r="L4" t="n">
         <v>1800</v>
       </c>
-      <c r="L4" t="n">
-        <v>2000</v>
-      </c>
       <c r="M4" t="n">
-        <v>1900</v>
+        <v>1650</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/paquete</t>
+          <t>$/docena de matas</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1900</v>
+        <v>275</v>
       </c>
       <c r="Q4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44377</v>
+        <v>44623</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -713,24 +713,24 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="K5" t="n">
+        <v>1800</v>
+      </c>
+      <c r="L5" t="n">
         <v>2000</v>
       </c>
-      <c r="L5" t="n">
-        <v>2800</v>
-      </c>
       <c r="M5" t="n">
-        <v>2364</v>
+        <v>1900</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/docena de matas</t>
+          <t>$/paquete</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>394</v>
+        <v>1900</v>
       </c>
       <c r="Q5" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44370</v>
+        <v>44377</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>100</v>
+        <v>550</v>
       </c>
       <c r="K6" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="L6" t="n">
-        <v>1200</v>
+        <v>2800</v>
       </c>
       <c r="M6" t="n">
-        <v>1080</v>
+        <v>2364</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>180</v>
+        <v>394</v>
       </c>
       <c r="Q6" t="n">
         <v>6</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45204</v>
+        <v>44370</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -857,20 +857,20 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J7" t="n">
         <v>100</v>
       </c>
       <c r="K7" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="L7" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="M7" t="n">
-        <v>900</v>
+        <v>1080</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="Q7" t="n">
         <v>6</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45218</v>
+        <v>45204</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="K8" t="n">
-        <v>1400</v>
+        <v>800</v>
       </c>
       <c r="L8" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="M8" t="n">
-        <v>1444</v>
+        <v>900</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,12 +955,84 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>241</v>
+        <v>150</v>
       </c>
       <c r="Q8" t="n">
         <v>6</v>
       </c>
       <c r="R8" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>45218</v>
+      </c>
+      <c r="E9" t="n">
+        <v>15</v>
+      </c>
+      <c r="F9" t="n">
+        <v>100112017</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Corazón de apio</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>180</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1400</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1500</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1444</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>$/docena de matas</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P9" t="n">
+        <v>241</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>6</v>
+      </c>
+      <c r="R9" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Corazón de apio.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Corazón de apio.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45225</v>
+        <v>45282</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -497,20 +497,20 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="K2" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="L2" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="M2" t="n">
-        <v>1750</v>
+        <v>940</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>292</v>
+        <v>157</v>
       </c>
       <c r="Q2" t="n">
         <v>6</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45274</v>
+        <v>45225</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="K3" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="L3" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="M3" t="n">
-        <v>900</v>
+        <v>1750</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>150</v>
+        <v>292</v>
       </c>
       <c r="Q3" t="n">
         <v>6</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44267</v>
+        <v>45274</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="K4" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="L4" t="n">
-        <v>1800</v>
+        <v>1000</v>
       </c>
       <c r="M4" t="n">
-        <v>1650</v>
+        <v>900</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>275</v>
+        <v>150</v>
       </c>
       <c r="Q4" t="n">
         <v>6</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44623</v>
+        <v>44267</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,20 +717,20 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="K5" t="n">
+        <v>1500</v>
+      </c>
+      <c r="L5" t="n">
         <v>1800</v>
       </c>
-      <c r="L5" t="n">
-        <v>2000</v>
-      </c>
       <c r="M5" t="n">
-        <v>1900</v>
+        <v>1650</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/paquete</t>
+          <t>$/docena de matas</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1900</v>
+        <v>275</v>
       </c>
       <c r="Q5" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44377</v>
+        <v>44623</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -785,24 +785,24 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="K6" t="n">
+        <v>1800</v>
+      </c>
+      <c r="L6" t="n">
         <v>2000</v>
       </c>
-      <c r="L6" t="n">
-        <v>2800</v>
-      </c>
       <c r="M6" t="n">
-        <v>2364</v>
+        <v>1900</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/docena de matas</t>
+          <t>$/paquete</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -811,10 +811,10 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>394</v>
+        <v>1900</v>
       </c>
       <c r="Q6" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44370</v>
+        <v>44377</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>100</v>
+        <v>550</v>
       </c>
       <c r="K7" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="L7" t="n">
-        <v>1200</v>
+        <v>2800</v>
       </c>
       <c r="M7" t="n">
-        <v>1080</v>
+        <v>2364</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>180</v>
+        <v>394</v>
       </c>
       <c r="Q7" t="n">
         <v>6</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45204</v>
+        <v>44370</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -929,20 +929,20 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J8" t="n">
         <v>100</v>
       </c>
       <c r="K8" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="L8" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="M8" t="n">
-        <v>900</v>
+        <v>1080</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="Q8" t="n">
         <v>6</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45218</v>
+        <v>45204</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="K9" t="n">
-        <v>1400</v>
+        <v>800</v>
       </c>
       <c r="L9" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="M9" t="n">
-        <v>1444</v>
+        <v>900</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,12 +1027,84 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>241</v>
+        <v>150</v>
       </c>
       <c r="Q9" t="n">
         <v>6</v>
       </c>
       <c r="R9" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>45218</v>
+      </c>
+      <c r="E10" t="n">
+        <v>15</v>
+      </c>
+      <c r="F10" t="n">
+        <v>100112017</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Corazón de apio</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>180</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1400</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1500</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1444</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>$/docena de matas</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P10" t="n">
+        <v>241</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>6</v>
+      </c>
+      <c r="R10" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>
